--- a/individual_case_outputs/avey/493.xlsx
+++ b/individual_case_outputs/avey/493.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>septic arthritis</t>
+          <t>systemic-onset juvenile idiopathic arthritis</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
